--- a/bmc_testbench/easy_instances/comparison_d3_10p.xlsx
+++ b/bmc_testbench/easy_instances/comparison_d3_10p.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="comparison_d3_10p.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,10 +37,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +79,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,11 +657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074458008"/>
-        <c:axId val="-2074459816"/>
+        <c:axId val="2128124872"/>
+        <c:axId val="-2121948744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074458008"/>
+        <c:axId val="2128124872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,12 +690,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074459816"/>
+        <c:crossAx val="-2121948744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074459816"/>
+        <c:axId val="-2121948744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074458008"/>
+        <c:crossAx val="2128124872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,7 +1107,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
